--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,9 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.1667855198643</v>
+        <v>1.202053</v>
       </c>
       <c r="H2">
-        <v>1.1667855198643</v>
+        <v>2.404106</v>
       </c>
       <c r="I2">
-        <v>0.5152720161278056</v>
+        <v>0.4470088265475837</v>
       </c>
       <c r="J2">
-        <v>0.5152720161278056</v>
+        <v>0.3746792223348843</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N2">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O2">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P2">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q2">
-        <v>29.4142522964244</v>
+        <v>30.815188811698</v>
       </c>
       <c r="R2">
-        <v>29.4142522964244</v>
+        <v>123.260755246792</v>
       </c>
       <c r="S2">
-        <v>0.02453598824280659</v>
+        <v>0.02104040993279744</v>
       </c>
       <c r="T2">
-        <v>0.02453598824280659</v>
+        <v>0.01222868827950208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.1667855198643</v>
+        <v>1.202053</v>
       </c>
       <c r="H3">
-        <v>1.1667855198643</v>
+        <v>2.404106</v>
       </c>
       <c r="I3">
-        <v>0.5152720161278056</v>
+        <v>0.4470088265475837</v>
       </c>
       <c r="J3">
-        <v>0.5152720161278056</v>
+        <v>0.3746792223348843</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N3">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O3">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P3">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q3">
-        <v>221.6837717496663</v>
+        <v>234.588205065423</v>
       </c>
       <c r="R3">
-        <v>221.6837717496663</v>
+        <v>1407.529230392538</v>
       </c>
       <c r="S3">
-        <v>0.1849181941616794</v>
+        <v>0.1601752963493742</v>
       </c>
       <c r="T3">
-        <v>0.1849181941616794</v>
+        <v>0.1396408464989166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.1667855198643</v>
+        <v>1.202053</v>
       </c>
       <c r="H4">
-        <v>1.1667855198643</v>
+        <v>2.404106</v>
       </c>
       <c r="I4">
-        <v>0.5152720161278056</v>
+        <v>0.4470088265475837</v>
       </c>
       <c r="J4">
-        <v>0.5152720161278056</v>
+        <v>0.3746792223348843</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N4">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O4">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P4">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q4">
-        <v>305.3073200739104</v>
+        <v>315.8184735655257</v>
       </c>
       <c r="R4">
-        <v>305.3073200739104</v>
+        <v>1894.910841393154</v>
       </c>
       <c r="S4">
-        <v>0.2546730319807198</v>
+        <v>0.2156387938679925</v>
       </c>
       <c r="T4">
-        <v>0.2546730319807198</v>
+        <v>0.1879939316488081</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.1667855198643</v>
+        <v>1.202053</v>
       </c>
       <c r="H5">
-        <v>1.1667855198643</v>
+        <v>2.404106</v>
       </c>
       <c r="I5">
-        <v>0.5152720161278056</v>
+        <v>0.4470088265475837</v>
       </c>
       <c r="J5">
-        <v>0.5152720161278056</v>
+        <v>0.3746792223348843</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N5">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O5">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P5">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q5">
-        <v>26.91757725647451</v>
+        <v>28.55590054755734</v>
       </c>
       <c r="R5">
-        <v>26.91757725647451</v>
+        <v>171.335403285344</v>
       </c>
       <c r="S5">
-        <v>0.02245337914538731</v>
+        <v>0.0194977826419391</v>
       </c>
       <c r="T5">
-        <v>0.02245337914538731</v>
+        <v>0.01699816972420975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.1667855198643</v>
+        <v>1.202053</v>
       </c>
       <c r="H6">
-        <v>1.1667855198643</v>
+        <v>2.404106</v>
       </c>
       <c r="I6">
-        <v>0.5152720161278056</v>
+        <v>0.4470088265475837</v>
       </c>
       <c r="J6">
-        <v>0.5152720161278056</v>
+        <v>0.3746792223348843</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N6">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O6">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P6">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q6">
-        <v>34.39587330521183</v>
+        <v>44.898706211358</v>
       </c>
       <c r="R6">
-        <v>34.39587330521183</v>
+        <v>179.594824845432</v>
       </c>
       <c r="S6">
-        <v>0.02869142259721255</v>
+        <v>0.03065654375548044</v>
       </c>
       <c r="T6">
-        <v>0.02869142259721255</v>
+        <v>0.01781758618344765</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.182713441263734</v>
+        <v>0.139568</v>
       </c>
       <c r="H7">
-        <v>0.182713441263734</v>
+        <v>0.418704</v>
       </c>
       <c r="I7">
-        <v>0.08068931406053373</v>
+        <v>0.05190131209155766</v>
       </c>
       <c r="J7">
-        <v>0.08068931406053373</v>
+        <v>0.06525489687580555</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N7">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O7">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P7">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q7">
-        <v>4.60614154682383</v>
+        <v>3.577890718688</v>
       </c>
       <c r="R7">
-        <v>4.60614154682383</v>
+        <v>21.467344312128</v>
       </c>
       <c r="S7">
-        <v>0.003842227016299533</v>
+        <v>0.002442960446420143</v>
       </c>
       <c r="T7">
-        <v>0.003842227016299533</v>
+        <v>0.002129773270138937</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.182713441263734</v>
+        <v>0.139568</v>
       </c>
       <c r="H8">
-        <v>0.182713441263734</v>
+        <v>0.418704</v>
       </c>
       <c r="I8">
-        <v>0.08068931406053373</v>
+        <v>0.05190131209155766</v>
       </c>
       <c r="J8">
-        <v>0.08068931406053373</v>
+        <v>0.06525489687580555</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N8">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O8">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P8">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q8">
-        <v>34.71469616233878</v>
+        <v>27.237573222288</v>
       </c>
       <c r="R8">
-        <v>34.71469616233878</v>
+        <v>245.138159000592</v>
       </c>
       <c r="S8">
-        <v>0.02895736965563755</v>
+        <v>0.01859763734285382</v>
       </c>
       <c r="T8">
-        <v>0.02895736965563755</v>
+        <v>0.02432013438362634</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.182713441263734</v>
+        <v>0.139568</v>
       </c>
       <c r="H9">
-        <v>0.182713441263734</v>
+        <v>0.418704</v>
       </c>
       <c r="I9">
-        <v>0.08068931406053373</v>
+        <v>0.05190131209155766</v>
       </c>
       <c r="J9">
-        <v>0.08068931406053373</v>
+        <v>0.06525489687580555</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N9">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O9">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P9">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q9">
-        <v>47.80977321367534</v>
+        <v>36.66905928323733</v>
       </c>
       <c r="R9">
-        <v>47.80977321367534</v>
+        <v>330.021533549136</v>
       </c>
       <c r="S9">
-        <v>0.03988066810743256</v>
+        <v>0.02503739450969963</v>
       </c>
       <c r="T9">
-        <v>0.03988066810743256</v>
+        <v>0.0327414062262989</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.182713441263734</v>
+        <v>0.139568</v>
       </c>
       <c r="H10">
-        <v>0.182713441263734</v>
+        <v>0.418704</v>
       </c>
       <c r="I10">
-        <v>0.08068931406053373</v>
+        <v>0.05190131209155766</v>
       </c>
       <c r="J10">
-        <v>0.08068931406053373</v>
+        <v>0.06525489687580555</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N10">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O10">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P10">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q10">
-        <v>4.215173300732149</v>
+        <v>3.315569220010667</v>
       </c>
       <c r="R10">
-        <v>4.215173300732149</v>
+        <v>29.840122980096</v>
       </c>
       <c r="S10">
-        <v>0.00351609966168436</v>
+        <v>0.00226384903807915</v>
       </c>
       <c r="T10">
-        <v>0.00351609966168436</v>
+        <v>0.00296043587770486</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.182713441263734</v>
+        <v>0.139568</v>
       </c>
       <c r="H11">
-        <v>0.182713441263734</v>
+        <v>0.418704</v>
       </c>
       <c r="I11">
-        <v>0.08068931406053373</v>
+        <v>0.05190131209155766</v>
       </c>
       <c r="J11">
-        <v>0.08068931406053373</v>
+        <v>0.06525489687580555</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N11">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O11">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P11">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q11">
-        <v>5.386241318453773</v>
+        <v>5.213100111648</v>
       </c>
       <c r="R11">
-        <v>5.386241318453773</v>
+        <v>31.278600669888</v>
       </c>
       <c r="S11">
-        <v>0.004492949619479731</v>
+        <v>0.003559470754504912</v>
       </c>
       <c r="T11">
-        <v>0.004492949619479731</v>
+        <v>0.003103147118036502</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.466140470051466</v>
+        <v>0.2201936666666666</v>
       </c>
       <c r="H12">
-        <v>0.466140470051466</v>
+        <v>0.660581</v>
       </c>
       <c r="I12">
-        <v>0.2058554341933524</v>
+        <v>0.0818836711441812</v>
       </c>
       <c r="J12">
-        <v>0.2058554341933524</v>
+        <v>0.1029513571236876</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N12">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O12">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P12">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q12">
-        <v>11.75123718818719</v>
+        <v>5.644767255248667</v>
       </c>
       <c r="R12">
-        <v>11.75123718818719</v>
+        <v>33.868603531492</v>
       </c>
       <c r="S12">
-        <v>0.0098023303323213</v>
+        <v>0.003854210264665885</v>
       </c>
       <c r="T12">
-        <v>0.0098023303323213</v>
+        <v>0.003360101065577709</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1210,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.466140470051466</v>
+        <v>0.2201936666666666</v>
       </c>
       <c r="H13">
-        <v>0.466140470051466</v>
+        <v>0.660581</v>
       </c>
       <c r="I13">
-        <v>0.2058554341933524</v>
+        <v>0.0818836711441812</v>
       </c>
       <c r="J13">
-        <v>0.2058554341933524</v>
+        <v>0.1029513571236876</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N13">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O13">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P13">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q13">
-        <v>88.56450119314951</v>
+        <v>42.972179288357</v>
       </c>
       <c r="R13">
-        <v>88.56450119314951</v>
+        <v>386.749613595213</v>
       </c>
       <c r="S13">
-        <v>0.07387634872055877</v>
+        <v>0.02934112373796218</v>
       </c>
       <c r="T13">
-        <v>0.07387634872055877</v>
+        <v>0.03836939387077809</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.466140470051466</v>
+        <v>0.2201936666666666</v>
       </c>
       <c r="H14">
-        <v>0.466140470051466</v>
+        <v>0.660581</v>
       </c>
       <c r="I14">
-        <v>0.2058554341933524</v>
+        <v>0.0818836711441812</v>
       </c>
       <c r="J14">
-        <v>0.2058554341933524</v>
+        <v>0.1029513571236876</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N14">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O14">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P14">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q14">
-        <v>121.9728007131574</v>
+        <v>57.85204786765878</v>
       </c>
       <c r="R14">
-        <v>121.9728007131574</v>
+        <v>520.668430808929</v>
       </c>
       <c r="S14">
-        <v>0.10174398363354</v>
+        <v>0.03950100095201357</v>
       </c>
       <c r="T14">
-        <v>0.10174398363354</v>
+        <v>0.05165546750538509</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.466140470051466</v>
+        <v>0.2201936666666666</v>
       </c>
       <c r="H15">
-        <v>0.466140470051466</v>
+        <v>0.660581</v>
       </c>
       <c r="I15">
-        <v>0.2058554341933524</v>
+        <v>0.0818836711441812</v>
       </c>
       <c r="J15">
-        <v>0.2058554341933524</v>
+        <v>0.1029513571236876</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N15">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O15">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P15">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q15">
-        <v>10.75379485035002</v>
+        <v>5.230907827304889</v>
       </c>
       <c r="R15">
-        <v>10.75379485035002</v>
+        <v>47.078170445744</v>
       </c>
       <c r="S15">
-        <v>0.008970310764819824</v>
+        <v>0.003571629746607061</v>
       </c>
       <c r="T15">
-        <v>0.008970310764819824</v>
+        <v>0.004670620993661762</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.466140470051466</v>
+        <v>0.2201936666666666</v>
       </c>
       <c r="H16">
-        <v>0.466140470051466</v>
+        <v>0.660581</v>
       </c>
       <c r="I16">
-        <v>0.2058554341933524</v>
+        <v>0.0818836711441812</v>
       </c>
       <c r="J16">
-        <v>0.2058554341933524</v>
+        <v>0.1029513571236876</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N16">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O16">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P16">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q16">
-        <v>13.74143600289694</v>
+        <v>8.224604696522</v>
       </c>
       <c r="R16">
-        <v>13.74143600289694</v>
+        <v>49.347628179132</v>
       </c>
       <c r="S16">
-        <v>0.01146246074211254</v>
+        <v>0.0056157064429325</v>
       </c>
       <c r="T16">
-        <v>0.01146246074211254</v>
+        <v>0.004895773688284972</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1458,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1467,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.448767490493685</v>
+        <v>0.1841186666666667</v>
       </c>
       <c r="H17">
-        <v>0.448767490493685</v>
+        <v>0.552356</v>
       </c>
       <c r="I17">
-        <v>0.1981832356183083</v>
+        <v>0.06846841955568711</v>
       </c>
       <c r="J17">
-        <v>0.1981832356183083</v>
+        <v>0.08608452228479416</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N17">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O17">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P17">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q17">
-        <v>11.31327048809253</v>
+        <v>4.719967819298667</v>
       </c>
       <c r="R17">
-        <v>11.31327048809253</v>
+        <v>28.319806915792</v>
       </c>
       <c r="S17">
-        <v>0.009436999073992168</v>
+        <v>0.003222763241676326</v>
       </c>
       <c r="T17">
-        <v>0.009436999073992168</v>
+        <v>0.002809605459706291</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1520,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.448767490493685</v>
+        <v>0.1841186666666667</v>
       </c>
       <c r="H18">
-        <v>0.448767490493685</v>
+        <v>0.552356</v>
       </c>
       <c r="I18">
-        <v>0.1981832356183083</v>
+        <v>0.06846841955568711</v>
       </c>
       <c r="J18">
-        <v>0.1981832356183083</v>
+        <v>0.08608452228479416</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N18">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O18">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P18">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q18">
-        <v>85.26371662792225</v>
+        <v>35.931916090532</v>
       </c>
       <c r="R18">
-        <v>85.26371662792225</v>
+        <v>323.387244814788</v>
       </c>
       <c r="S18">
-        <v>0.07112298921074392</v>
+        <v>0.02453407794563549</v>
       </c>
       <c r="T18">
-        <v>0.07112298921074392</v>
+        <v>0.03208321904639629</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1582,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.448767490493685</v>
+        <v>0.1841186666666667</v>
       </c>
       <c r="H19">
-        <v>0.448767490493685</v>
+        <v>0.552356</v>
       </c>
       <c r="I19">
-        <v>0.1981832356183083</v>
+        <v>0.06846841955568711</v>
       </c>
       <c r="J19">
-        <v>0.1981832356183083</v>
+        <v>0.08608452228479416</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N19">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O19">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P19">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q19">
-        <v>117.4268942546149</v>
+        <v>48.37397041693377</v>
       </c>
       <c r="R19">
-        <v>117.4268942546149</v>
+        <v>435.365733752404</v>
       </c>
       <c r="S19">
-        <v>0.09795200189979876</v>
+        <v>0.03302943148811487</v>
       </c>
       <c r="T19">
-        <v>0.09795200189979876</v>
+        <v>0.04319259471496226</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.448767490493685</v>
+        <v>0.1841186666666667</v>
       </c>
       <c r="H20">
-        <v>0.448767490493685</v>
+        <v>0.552356</v>
       </c>
       <c r="I20">
-        <v>0.1981832356183083</v>
+        <v>0.06846841955568711</v>
       </c>
       <c r="J20">
-        <v>0.1981832356183083</v>
+        <v>0.08608452228479416</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N20">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O20">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P20">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q20">
-        <v>10.35300266407391</v>
+        <v>4.373912243704889</v>
       </c>
       <c r="R20">
-        <v>10.35300266407391</v>
+        <v>39.365210193344</v>
       </c>
       <c r="S20">
-        <v>0.008635988740544713</v>
+        <v>0.002986478751760782</v>
       </c>
       <c r="T20">
-        <v>0.008635988740544713</v>
+        <v>0.003905418910890619</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,681 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1841186666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.552356</v>
+      </c>
+      <c r="I21">
+        <v>0.06846841955568711</v>
+      </c>
+      <c r="J21">
+        <v>0.08608452228479416</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>37.351686</v>
+      </c>
+      <c r="N21">
+        <v>74.703372</v>
+      </c>
+      <c r="O21">
+        <v>0.06858151771241831</v>
+      </c>
+      <c r="P21">
+        <v>0.04755424139191385</v>
+      </c>
+      <c r="Q21">
+        <v>6.877142624071999</v>
+      </c>
+      <c r="R21">
+        <v>41.262855744432</v>
+      </c>
+      <c r="S21">
+        <v>0.004695668128499644</v>
+      </c>
+      <c r="T21">
+        <v>0.004093684152838689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.4943506666666666</v>
+      </c>
+      <c r="H22">
+        <v>1.483052</v>
+      </c>
+      <c r="I22">
+        <v>0.1838347488918395</v>
+      </c>
+      <c r="J22">
+        <v>0.2311332237605974</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>25.635466</v>
+      </c>
+      <c r="N22">
+        <v>51.270932</v>
+      </c>
+      <c r="O22">
+        <v>0.04706933886585728</v>
+      </c>
+      <c r="P22">
+        <v>0.03263775397871465</v>
+      </c>
+      <c r="Q22">
+        <v>12.67290970741067</v>
+      </c>
+      <c r="R22">
+        <v>76.03745824446399</v>
+      </c>
+      <c r="S22">
+        <v>0.008652980090909774</v>
+      </c>
+      <c r="T22">
+        <v>0.00754366929340558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.4943506666666666</v>
+      </c>
+      <c r="H23">
+        <v>1.483052</v>
+      </c>
+      <c r="I23">
+        <v>0.1838347488918395</v>
+      </c>
+      <c r="J23">
+        <v>0.2311332237605974</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>195.156291</v>
+      </c>
+      <c r="N23">
+        <v>585.468873</v>
+      </c>
+      <c r="O23">
+        <v>0.3583269207153423</v>
+      </c>
+      <c r="P23">
+        <v>0.3726943960989305</v>
+      </c>
+      <c r="Q23">
+        <v>96.47564256004399</v>
+      </c>
+      <c r="R23">
+        <v>868.2807830403959</v>
+      </c>
+      <c r="S23">
+        <v>0.06587293949089103</v>
+      </c>
+      <c r="T23">
+        <v>0.08614205724785483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.4943506666666666</v>
+      </c>
+      <c r="H24">
+        <v>1.483052</v>
+      </c>
+      <c r="I24">
+        <v>0.1838347488918395</v>
+      </c>
+      <c r="J24">
+        <v>0.2311332237605974</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>262.7325696666667</v>
+      </c>
+      <c r="N24">
+        <v>788.197709</v>
+      </c>
+      <c r="O24">
+        <v>0.4824038834612092</v>
+      </c>
+      <c r="P24">
+        <v>0.5017463484558564</v>
+      </c>
+      <c r="Q24">
+        <v>129.8820209697631</v>
+      </c>
+      <c r="R24">
+        <v>1168.938188727868</v>
+      </c>
+      <c r="S24">
+        <v>0.08868259678053958</v>
+      </c>
+      <c r="T24">
+        <v>0.1159702510287101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4943506666666666</v>
+      </c>
+      <c r="H25">
+        <v>1.483052</v>
+      </c>
+      <c r="I25">
+        <v>0.1838347488918395</v>
+      </c>
+      <c r="J25">
+        <v>0.2311332237605974</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.75594133333334</v>
+      </c>
+      <c r="N25">
+        <v>71.267824</v>
+      </c>
+      <c r="O25">
+        <v>0.04361833924517278</v>
+      </c>
+      <c r="P25">
+        <v>0.04536726007458447</v>
+      </c>
+      <c r="Q25">
+        <v>11.74376543542756</v>
+      </c>
+      <c r="R25">
+        <v>105.693888918848</v>
+      </c>
+      <c r="S25">
+        <v>0.008018566442215404</v>
+      </c>
+      <c r="T25">
+        <v>0.01048588107422415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4943506666666666</v>
+      </c>
+      <c r="H26">
+        <v>1.483052</v>
+      </c>
+      <c r="I26">
+        <v>0.1838347488918395</v>
+      </c>
+      <c r="J26">
+        <v>0.2311332237605974</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>37.351686</v>
+      </c>
+      <c r="N26">
+        <v>74.703372</v>
+      </c>
+      <c r="O26">
+        <v>0.06858151771241831</v>
+      </c>
+      <c r="P26">
+        <v>0.04755424139191385</v>
+      </c>
+      <c r="Q26">
+        <v>18.464830875224</v>
+      </c>
+      <c r="R26">
+        <v>110.788985251344</v>
+      </c>
+      <c r="S26">
+        <v>0.01260766608728366</v>
+      </c>
+      <c r="T26">
+        <v>0.01099136511640269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4488195</v>
+      </c>
+      <c r="H27">
+        <v>0.8976390000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.166903021769151</v>
+      </c>
+      <c r="J27">
+        <v>0.1398967776202311</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>25.635466</v>
+      </c>
+      <c r="N27">
+        <v>51.270932</v>
+      </c>
+      <c r="O27">
+        <v>0.04706933886585728</v>
+      </c>
+      <c r="P27">
+        <v>0.03263775397871465</v>
+      </c>
+      <c r="Q27">
+        <v>11.505697032387</v>
+      </c>
+      <c r="R27">
+        <v>46.022788129548</v>
+      </c>
+      <c r="S27">
+        <v>0.007856014889387723</v>
+      </c>
+      <c r="T27">
+        <v>0.004565916610384055</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4488195</v>
+      </c>
+      <c r="H28">
+        <v>0.8976390000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.166903021769151</v>
+      </c>
+      <c r="J28">
+        <v>0.1398967776202311</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>195.156291</v>
+      </c>
+      <c r="N28">
+        <v>585.468873</v>
+      </c>
+      <c r="O28">
+        <v>0.3583269207153423</v>
+      </c>
+      <c r="P28">
+        <v>0.3726943960989305</v>
+      </c>
+      <c r="Q28">
+        <v>87.58994894847451</v>
+      </c>
+      <c r="R28">
+        <v>525.5396936908471</v>
+      </c>
+      <c r="S28">
+        <v>0.05980584584862562</v>
+      </c>
+      <c r="T28">
+        <v>0.05213874505135839</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.448767490493685</v>
-      </c>
-      <c r="H21">
-        <v>0.448767490493685</v>
-      </c>
-      <c r="I21">
-        <v>0.1981832356183083</v>
-      </c>
-      <c r="J21">
-        <v>0.1981832356183083</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>29.479173952392</v>
-      </c>
-      <c r="N21">
-        <v>29.479173952392</v>
-      </c>
-      <c r="O21">
-        <v>0.05568208965203356</v>
-      </c>
-      <c r="P21">
-        <v>0.05568208965203356</v>
-      </c>
-      <c r="Q21">
-        <v>13.22929491644176</v>
-      </c>
-      <c r="R21">
-        <v>13.22929491644176</v>
-      </c>
-      <c r="S21">
-        <v>0.01103525669322873</v>
-      </c>
-      <c r="T21">
-        <v>0.01103525669322873</v>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4488195</v>
+      </c>
+      <c r="H29">
+        <v>0.8976390000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.166903021769151</v>
+      </c>
+      <c r="J29">
+        <v>0.1398967776202311</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>262.7325696666667</v>
+      </c>
+      <c r="N29">
+        <v>788.197709</v>
+      </c>
+      <c r="O29">
+        <v>0.4824038834612092</v>
+      </c>
+      <c r="P29">
+        <v>0.5017463484558564</v>
+      </c>
+      <c r="Q29">
+        <v>117.9195005515085</v>
+      </c>
+      <c r="R29">
+        <v>707.5170033090511</v>
+      </c>
+      <c r="S29">
+        <v>0.08051466586284917</v>
+      </c>
+      <c r="T29">
+        <v>0.07019269733169191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4488195</v>
+      </c>
+      <c r="H30">
+        <v>0.8976390000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.166903021769151</v>
+      </c>
+      <c r="J30">
+        <v>0.1398967776202311</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>23.75594133333334</v>
+      </c>
+      <c r="N30">
+        <v>71.267824</v>
+      </c>
+      <c r="O30">
+        <v>0.04361833924517278</v>
+      </c>
+      <c r="P30">
+        <v>0.04536726007458447</v>
+      </c>
+      <c r="Q30">
+        <v>10.662129711256</v>
+      </c>
+      <c r="R30">
+        <v>63.97277826753601</v>
+      </c>
+      <c r="S30">
+        <v>0.007280032624571284</v>
+      </c>
+      <c r="T30">
+        <v>0.006346733493893331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4488195</v>
+      </c>
+      <c r="H31">
+        <v>0.8976390000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.166903021769151</v>
+      </c>
+      <c r="J31">
+        <v>0.1398967776202311</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>37.351686</v>
+      </c>
+      <c r="N31">
+        <v>74.703372</v>
+      </c>
+      <c r="O31">
+        <v>0.06858151771241831</v>
+      </c>
+      <c r="P31">
+        <v>0.04755424139191385</v>
+      </c>
+      <c r="Q31">
+        <v>16.764165034677</v>
+      </c>
+      <c r="R31">
+        <v>67.05666013870801</v>
+      </c>
+      <c r="S31">
+        <v>0.01144646254371717</v>
+      </c>
+      <c r="T31">
+        <v>0.00665268513290336</v>
       </c>
     </row>
   </sheetData>
